--- a/data/trans_orig/P14B27-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCD066F-03F4-4646-9E5A-D112BA98689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6778E8-36DA-46A7-92C5-5630626729F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71DCE867-358D-406A-A414-4FC710B1CA49}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE6C2071-5675-4F5F-AC12-B10CAE08D56E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="315">
   <si>
     <t>Población cuyas cataratas le limita en 2012 (Tasa respuesta: 2,21%)</t>
   </si>
@@ -112,55 +112,55 @@
     <t>45,27%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>54,73%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -169,826 +169,820 @@
     <t>63,28%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
     <t>65,74%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA4138A-4940-4637-B93D-DE8421E6A01F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E05B26-B01E-4842-9B21-A0465B925825}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2463,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A488ABD-820B-4B0D-8B61-78DBB97FB9AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D085808E-282F-4B01-8D7E-C0886EF71701}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,7 +2772,7 @@
         <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2787,13 @@
         <v>4292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2808,13 +2802,13 @@
         <v>6333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2823,13 +2817,13 @@
         <v>10625</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2891,13 @@
         <v>2762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2912,13 +2906,13 @@
         <v>8328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2927,13 +2921,13 @@
         <v>11089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +2942,10 @@
         <v>5358</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>149</v>
@@ -3526,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1BAB5C-93BD-4453-B55C-F42AB544E20A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FC2154-1449-46B9-B2C2-76054F4F3B73}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4118,10 +4112,10 @@
         <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4130,13 +4124,13 @@
         <v>12313</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4145,13 +4139,13 @@
         <v>20849</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4160,13 @@
         <v>9064</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4181,13 +4175,13 @@
         <v>24428</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -4196,13 +4190,13 @@
         <v>33492</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4264,13 @@
         <v>8541</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -4285,13 +4279,13 @@
         <v>17656</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -4300,13 +4294,13 @@
         <v>26198</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4315,13 @@
         <v>23467</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4336,13 +4330,13 @@
         <v>37849</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4351,13 +4345,13 @@
         <v>61316</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4419,13 @@
         <v>36727</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -4440,13 +4434,13 @@
         <v>61407</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -4455,13 +4449,13 @@
         <v>98135</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4470,13 @@
         <v>75850</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -4491,13 +4485,13 @@
         <v>112489</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
@@ -4506,13 +4500,13 @@
         <v>188339</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B27-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6778E8-36DA-46A7-92C5-5630626729F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4905BE0-3959-4038-B0E0-60B46BCED41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE6C2071-5675-4F5F-AC12-B10CAE08D56E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D29CC76-EED3-4D23-87DB-B0968E41939D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -91,6 +91,9 @@
     <t>20,6%</t>
   </si>
   <si>
+    <t>70,67%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -106,169 +109,172 @@
     <t>79,4%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>45,27%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>54,73%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>65,53%</t>
   </si>
   <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>39,5%</t>
   </si>
   <si>
     <t>69,66%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>53,1%</t>
+    <t>60,5%</t>
   </si>
   <si>
     <t>30,34%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -277,115 +283,115 @@
     <t>56,25%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>58,69%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>57,67%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>41,31%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
   <si>
     <t>42,33%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
+    <t>Población cuyas cataratas le limita en 2016 (Tasa respuesta: 1,64%)</t>
   </si>
   <si>
     <t>70,4%</t>
@@ -394,7 +400,7 @@
     <t>82,02%</t>
   </si>
   <si>
-    <t>22,92%</t>
+    <t>22,82%</t>
   </si>
   <si>
     <t>29,6%</t>
@@ -403,265 +409,265 @@
     <t>17,98%</t>
   </si>
   <si>
-    <t>77,08%</t>
+    <t>77,18%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>47,92%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>60,47%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>52,08%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>11,21%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
   </si>
   <si>
     <t>65,99%</t>
   </si>
   <si>
-    <t>88,79%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>51,56%</t>
   </si>
   <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>66,69%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>33,31%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>46,26%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>66,14%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
   </si>
   <si>
     <t>58,38%</t>
   </si>
   <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>53,74%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>33,86%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
@@ -775,9 +781,6 @@
     <t>76,48%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
     <t>14,0%</t>
   </si>
   <si>
@@ -800,9 +803,6 @@
   </si>
   <si>
     <t>47,63%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
   </si>
   <si>
     <t>57,81%</t>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E05B26-B01E-4842-9B21-A0465B925825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B09149-03B3-443B-A25B-2D4BEB544853}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1554,13 +1554,13 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -1587,10 +1587,10 @@
         <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1599,10 +1599,10 @@
         <v>2989</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -1620,13 +1620,13 @@
         <v>1741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1635,13 +1635,13 @@
         <v>2023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -1650,18 +1650,18 @@
         <v>3764</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1673,13 +1673,13 @@
         <v>6179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -1688,13 +1688,13 @@
         <v>11704</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -1703,19 +1703,19 @@
         <v>17883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1724,13 +1724,13 @@
         <v>7472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1739,13 +1739,13 @@
         <v>7246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -1754,13 +1754,13 @@
         <v>14718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1775,13 @@
         <v>13651</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -1790,13 +1790,13 @@
         <v>18950</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -1805,18 +1805,18 @@
         <v>32601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1828,13 +1828,13 @@
         <v>13264</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -1843,13 +1843,13 @@
         <v>17874</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -1858,19 +1858,19 @@
         <v>31138</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
@@ -1879,13 +1879,13 @@
         <v>7696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1894,13 +1894,13 @@
         <v>8681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -1909,13 +1909,13 @@
         <v>16377</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1930,13 @@
         <v>20960</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -1945,13 +1945,13 @@
         <v>26555</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -1960,18 +1960,18 @@
         <v>47515</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1983,10 +1983,10 @@
         <v>8177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1998,13 +1998,13 @@
         <v>11827</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2013,19 +2013,19 @@
         <v>20004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -2034,13 +2034,13 @@
         <v>2065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2049,13 +2049,13 @@
         <v>5152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2064,13 +2064,13 @@
         <v>7217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2085,13 @@
         <v>10242</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2100,13 +2100,13 @@
         <v>16979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -2115,18 +2115,18 @@
         <v>27221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2138,13 +2138,13 @@
         <v>11439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2153,13 +2153,13 @@
         <v>16660</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -2168,19 +2168,19 @@
         <v>28099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>8</v>
@@ -2189,13 +2189,13 @@
         <v>8899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2204,13 +2204,13 @@
         <v>11727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2219,13 +2219,13 @@
         <v>20626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2240,13 @@
         <v>20338</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2255,13 +2255,13 @@
         <v>28387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -2270,13 +2270,13 @@
         <v>48725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2293,13 @@
         <v>39835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -2308,13 +2308,13 @@
         <v>58065</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -2323,19 +2323,19 @@
         <v>97900</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>24</v>
@@ -2344,13 +2344,13 @@
         <v>27096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -2359,13 +2359,13 @@
         <v>34829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -2374,13 +2374,13 @@
         <v>61925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2395,13 @@
         <v>66931</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -2410,13 +2410,13 @@
         <v>92894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>144</v>
@@ -2425,18 +2425,18 @@
         <v>159825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D085808E-282F-4B01-8D7E-C0886EF71701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBED3834-F5FF-4095-B184-AD2979F38431}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,7 +2474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2584,10 +2584,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>2132</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2611,10 +2611,10 @@
         <v>4088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2623,7 +2623,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -2662,13 +2662,13 @@
         <v>897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2683,13 @@
         <v>1957</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2698,13 +2698,13 @@
         <v>3029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -2713,18 +2713,18 @@
         <v>4985</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2736,13 +2736,13 @@
         <v>2806</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2751,13 +2751,13 @@
         <v>6969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2766,19 +2766,19 @@
         <v>9775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -2787,13 +2787,13 @@
         <v>4292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2802,13 +2802,13 @@
         <v>6333</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2817,13 +2817,13 @@
         <v>10625</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2838,13 @@
         <v>7098</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2853,13 +2853,13 @@
         <v>13302</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -2868,18 +2868,18 @@
         <v>20400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2891,13 +2891,13 @@
         <v>2762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2906,13 +2906,13 @@
         <v>8328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2921,19 +2921,19 @@
         <v>11089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
@@ -2942,13 +2942,13 @@
         <v>5358</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2957,13 +2957,13 @@
         <v>8863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -2972,13 +2972,13 @@
         <v>14222</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2993,13 @@
         <v>8120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -3008,13 +3008,13 @@
         <v>17191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -3023,18 +3023,18 @@
         <v>25311</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3046,13 +3046,13 @@
         <v>1683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3061,13 +3061,13 @@
         <v>11843</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3076,19 +3076,19 @@
         <v>13526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -3097,10 +3097,10 @@
         <v>5498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
@@ -3112,13 +3112,13 @@
         <v>4326</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -3127,13 +3127,13 @@
         <v>9823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3148,13 @@
         <v>7181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -3163,13 +3163,13 @@
         <v>16169</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -3178,18 +3178,18 @@
         <v>23349</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3201,13 +3201,13 @@
         <v>4591</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3216,13 +3216,13 @@
         <v>14238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3231,19 +3231,19 @@
         <v>18829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -3252,13 +3252,13 @@
         <v>6441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -3267,13 +3267,13 @@
         <v>16537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3282,13 +3282,13 @@
         <v>22978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>11032</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -3318,13 +3318,13 @@
         <v>30775</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3333,13 +3333,13 @@
         <v>41807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3356,13 @@
         <v>13798</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -3371,13 +3371,13 @@
         <v>43510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -3386,19 +3386,19 @@
         <v>57308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>23</v>
@@ -3407,13 +3407,13 @@
         <v>21590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -3422,13 +3422,13 @@
         <v>36955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -3437,13 +3437,13 @@
         <v>58545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3458,13 @@
         <v>35388</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -3473,13 +3473,13 @@
         <v>80465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>108</v>
@@ -3488,18 +3488,18 @@
         <v>115853</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FC2154-1449-46B9-B2C2-76054F4F3B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1993504-08F3-4FA7-B98F-18B68D672541}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3537,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,13 +3644,13 @@
         <v>2784</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3659,13 +3659,13 @@
         <v>3965</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3674,19 +3674,19 @@
         <v>6749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -3695,13 +3695,13 @@
         <v>1676</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3710,13 +3710,13 @@
         <v>7778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3725,13 +3725,13 @@
         <v>9454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3746,13 @@
         <v>4460</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -3761,13 +3761,13 @@
         <v>11743</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -3776,18 +3776,18 @@
         <v>16203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3799,13 +3799,13 @@
         <v>8343</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3814,13 +3814,13 @@
         <v>11567</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -3829,19 +3829,19 @@
         <v>19910</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>32</v>
@@ -3850,13 +3850,13 @@
         <v>17969</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -3865,13 +3865,13 @@
         <v>24520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3880,13 +3880,13 @@
         <v>42489</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3901,13 @@
         <v>26312</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -3916,13 +3916,13 @@
         <v>36087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>130</v>
@@ -3931,18 +3931,18 @@
         <v>62399</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3954,13 +3954,13 @@
         <v>8523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3969,13 +3969,13 @@
         <v>15906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -3984,19 +3984,19 @@
         <v>24430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
@@ -4005,7 +4005,7 @@
         <v>23675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>255</v>
@@ -4056,13 +4056,13 @@
         <v>32198</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4071,13 +4071,13 @@
         <v>33820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -4086,18 +4086,18 @@
         <v>66018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4112,7 +4112,7 @@
         <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>264</v>
@@ -4151,7 +4151,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -4166,7 +4166,7 @@
         <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4211,13 +4211,13 @@
         <v>17599</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -4226,13 +4226,13 @@
         <v>36741</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>78</v>
@@ -4241,18 +4241,18 @@
         <v>54341</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4306,7 +4306,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>33</v>
@@ -4366,13 +4366,13 @@
         <v>32008</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>79</v>
@@ -4381,13 +4381,13 @@
         <v>55505</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -4396,13 +4396,13 @@
         <v>87514</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4461,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>118</v>
@@ -4521,13 +4521,13 @@
         <v>112577</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>312</v>
@@ -4536,13 +4536,13 @@
         <v>173896</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>483</v>
@@ -4551,18 +4551,18 @@
         <v>286474</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
